--- a/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Tercer proceso UNACEM\Config\Archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Cuentas por Cobrar\Config\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,62 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$792</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$L$29</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t>Documentos/1891750060001 Frevitransport Cia. Ltda./FC/001-002-000000794</t>
-  </si>
-  <si>
-    <t>001-002-000000794</t>
-  </si>
-  <si>
-    <t>Documentos/1802085157001 FREIRE CONSTANTE LAURA TER/FC/001-002-000000866</t>
-  </si>
-  <si>
-    <t>001-002-000000866</t>
-  </si>
-  <si>
-    <t>Documentos/1802085157001 FREIRE CONSTANTE LAURA TER/FC/001-002-000000845</t>
-  </si>
-  <si>
-    <t>001-002-000000845</t>
-  </si>
-  <si>
-    <t>Documentos/1793148727001 ALMERCATO S.A.S./FC/001-001-000008878</t>
-  </si>
-  <si>
-    <t>001-001-000008878</t>
-  </si>
-  <si>
-    <t>Documentos/1792869951001 ZIGO HOTELES ZIGOHOTELES S/FC/001-001-000018862</t>
-  </si>
-  <si>
-    <t>001-001-000018862</t>
-  </si>
-  <si>
-    <t>Documentos/1792842379001 ESLASUIZA CIA. LTDA./FC/001-104-000210421</t>
-  </si>
-  <si>
-    <t>001-104-000210421</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-011-000000024</t>
-  </si>
-  <si>
-    <t>001-011-000000024</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-011-000000023</t>
-  </si>
-  <si>
-    <t>001-011-000000023</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
   <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000057</t>
   </si>
@@ -78,130 +30,202 @@
     <t>001-009-000000057</t>
   </si>
   <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000056</t>
-  </si>
-  <si>
-    <t>001-009-000000056</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-008-000000050</t>
-  </si>
-  <si>
-    <t>001-008-000000050</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-006-000000047</t>
-  </si>
-  <si>
-    <t>001-006-000000047</t>
-  </si>
-  <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000139</t>
   </si>
   <si>
     <t>001-005-000000139</t>
   </si>
   <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000137</t>
-  </si>
-  <si>
-    <t>001-005-000000137</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000136</t>
-  </si>
-  <si>
-    <t>001-005-000000136</t>
-  </si>
-  <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-003-000000074</t>
   </si>
   <si>
     <t>001-003-000000074</t>
   </si>
   <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-003-000000073</t>
-  </si>
-  <si>
-    <t>001-003-000000073</t>
-  </si>
-  <si>
-    <t>Documentos/1792605504001 ADESGAE CIA. LTDA/FC/019-004-000156661</t>
-  </si>
-  <si>
-    <t>019-004-000156661</t>
-  </si>
-  <si>
-    <t>Documentos/1792529913001 NEW STEEL TRANSPORTES ECUA/FC/001-002-000000141</t>
-  </si>
-  <si>
-    <t>001-002-000000141</t>
-  </si>
-  <si>
-    <t>Documentos/1792513960001 SISEKAROF S.A./FC/001-002-000000277</t>
-  </si>
-  <si>
-    <t>001-002-000000277</t>
-  </si>
-  <si>
-    <t>Documentos/1792458005001 TRANSPORTE DE CARGA PESADA/FC/001-001-000000510</t>
-  </si>
-  <si>
-    <t>001-001-000000510</t>
-  </si>
-  <si>
-    <t>Documentos/1792458005001 TRANSPORTE DE CARGA PESADA/FC/001-001-000000509</t>
-  </si>
-  <si>
-    <t>001-001-000000509</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000251</t>
-  </si>
-  <si>
-    <t>001-002-000000251</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000250</t>
-  </si>
-  <si>
-    <t>001-002-000000250</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000249</t>
-  </si>
-  <si>
-    <t>001-002-000000249</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000248</t>
-  </si>
-  <si>
-    <t>001-002-000000248</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000246</t>
-  </si>
-  <si>
-    <t>001-002-000000246</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000245</t>
-  </si>
-  <si>
-    <t>001-002-000000245</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000244</t>
-  </si>
-  <si>
-    <t>001-002-000000244</t>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000131</t>
+  </si>
+  <si>
+    <t>001-041-000000131</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000129</t>
+  </si>
+  <si>
+    <t>001-041-000000129</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000140</t>
+  </si>
+  <si>
+    <t>001-039-000000140</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000138</t>
+  </si>
+  <si>
+    <t>001-039-000000138</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000136</t>
+  </si>
+  <si>
+    <t>001-039-000000136</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000050</t>
+  </si>
+  <si>
+    <t>001-037-000000050</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000165</t>
+  </si>
+  <si>
+    <t>001-034-000000165</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000164</t>
+  </si>
+  <si>
+    <t>001-034-000000164</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000162</t>
+  </si>
+  <si>
+    <t>001-034-000000162</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000160</t>
+  </si>
+  <si>
+    <t>001-034-000000160</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-032-000000017</t>
+  </si>
+  <si>
+    <t>001-032-000000017</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-029-000000047</t>
+  </si>
+  <si>
+    <t>001-029-000000047</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-029-000000046</t>
+  </si>
+  <si>
+    <t>001-029-000000046</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-021-000000049</t>
+  </si>
+  <si>
+    <t>001-021-000000049</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000112</t>
+  </si>
+  <si>
+    <t>001-020-000000112</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000111</t>
+  </si>
+  <si>
+    <t>001-020-000000111</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000109</t>
+  </si>
+  <si>
+    <t>001-020-000000109</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000106</t>
+  </si>
+  <si>
+    <t>001-020-000000106</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-016-000000052</t>
+  </si>
+  <si>
+    <t>001-016-000000052</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-015-000000059</t>
+  </si>
+  <si>
+    <t>001-015-000000059</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000091</t>
+  </si>
+  <si>
+    <t>001-010-000000091</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000090</t>
+  </si>
+  <si>
+    <t>001-010-000000090</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000088</t>
+  </si>
+  <si>
+    <t>001-010-000000088</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000052</t>
+  </si>
+  <si>
+    <t>001-003-000000052</t>
+  </si>
+  <si>
+    <t>Documentos/1091730290001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000052</t>
   </si>
   <si>
     <t>Path</t>
   </si>
   <si>
     <t>Documento</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Punto Emisión MP</t>
+  </si>
+  <si>
+    <t>COD SAP</t>
+  </si>
+  <si>
+    <t>Razón Social</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Vehículo</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Comentario Cemento</t>
+  </si>
+  <si>
+    <t>MP RUC</t>
+  </si>
+  <si>
+    <t>MP Razón Social</t>
+  </si>
+  <si>
+    <t>Comentario Materia Prima</t>
   </si>
 </sst>
 </file>
@@ -535,10 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:B743"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,248 +571,353 @@
     <col min="1" max="2" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B792"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
@@ -15,14 +15,38 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$L$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$13</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+  <si>
+    <t>Documentos/1891750060001 Frevitransport Cia. Ltda./FC/001-002-000000794</t>
+  </si>
+  <si>
+    <t>001-002-000000794</t>
+  </si>
+  <si>
+    <t>Documentos/1802085157001 FREIRE CONSTANTE LAURA TER/FC/001-002-000000866</t>
+  </si>
+  <si>
+    <t>001-002-000000866</t>
+  </si>
+  <si>
+    <t>Documentos/1802085157001 FREIRE CONSTANTE LAURA TER/FC/001-002-000000845</t>
+  </si>
+  <si>
+    <t>001-002-000000845</t>
+  </si>
+  <si>
+    <t>Documentos/1793148727001 ALMERCATO S.A.S./FC/001-001-000008878</t>
+  </si>
+  <si>
+    <t>001-001-000008878</t>
+  </si>
   <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000057</t>
   </si>
@@ -30,6 +54,12 @@
     <t>001-009-000000057</t>
   </si>
   <si>
+    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000056</t>
+  </si>
+  <si>
+    <t>001-009-000000056</t>
+  </si>
+  <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000139</t>
   </si>
   <si>
@@ -42,151 +72,28 @@
     <t>001-003-000000074</t>
   </si>
   <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000131</t>
-  </si>
-  <si>
-    <t>001-041-000000131</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000129</t>
-  </si>
-  <si>
-    <t>001-041-000000129</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000140</t>
-  </si>
-  <si>
-    <t>001-039-000000140</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000138</t>
-  </si>
-  <si>
-    <t>001-039-000000138</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000136</t>
-  </si>
-  <si>
-    <t>001-039-000000136</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000050</t>
-  </si>
-  <si>
-    <t>001-037-000000050</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000165</t>
-  </si>
-  <si>
-    <t>001-034-000000165</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000164</t>
-  </si>
-  <si>
-    <t>001-034-000000164</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000162</t>
-  </si>
-  <si>
-    <t>001-034-000000162</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000160</t>
-  </si>
-  <si>
-    <t>001-034-000000160</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-032-000000017</t>
-  </si>
-  <si>
-    <t>001-032-000000017</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-029-000000047</t>
-  </si>
-  <si>
-    <t>001-029-000000047</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-029-000000046</t>
-  </si>
-  <si>
-    <t>001-029-000000046</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-021-000000049</t>
-  </si>
-  <si>
-    <t>001-021-000000049</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000112</t>
-  </si>
-  <si>
-    <t>001-020-000000112</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000111</t>
-  </si>
-  <si>
-    <t>001-020-000000111</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000109</t>
-  </si>
-  <si>
-    <t>001-020-000000109</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000106</t>
-  </si>
-  <si>
-    <t>001-020-000000106</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-016-000000052</t>
-  </si>
-  <si>
-    <t>001-016-000000052</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-015-000000059</t>
-  </si>
-  <si>
-    <t>001-015-000000059</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000091</t>
-  </si>
-  <si>
-    <t>001-010-000000091</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000090</t>
-  </si>
-  <si>
-    <t>001-010-000000090</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000088</t>
-  </si>
-  <si>
-    <t>001-010-000000088</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000052</t>
-  </si>
-  <si>
-    <t>001-003-000000052</t>
-  </si>
-  <si>
-    <t>Documentos/1091730290001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000052</t>
+    <t>Documentos/1792529913001 NEW STEEL TRANSPORTES ECUA/FC/001-002-000000141</t>
+  </si>
+  <si>
+    <t>001-002-000000141</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000251</t>
+  </si>
+  <si>
+    <t>001-002-000000251</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000250</t>
+  </si>
+  <si>
+    <t>001-002-000000250</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000130</t>
+  </si>
+  <si>
+    <t>001-041-000000130</t>
   </si>
   <si>
     <t>Path</t>
@@ -198,34 +105,49 @@
     <t>Categoría</t>
   </si>
   <si>
+    <t>COD SAP</t>
+  </si>
+  <si>
+    <t>Razón Social</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Vehículo</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Comentario Cemento</t>
+  </si>
+  <si>
+    <t>MP RUC</t>
+  </si>
+  <si>
+    <t>MP Razón Social</t>
+  </si>
+  <si>
+    <t>Comentario Materia Prima</t>
+  </si>
+  <si>
+    <t>Compañía Cemento</t>
+  </si>
+  <si>
+    <t>Caso de revisión manual</t>
+  </si>
+  <si>
+    <t>No cumple cumple con los parámetros</t>
+  </si>
+  <si>
     <t>Punto Emisión MP</t>
   </si>
   <si>
-    <t>COD SAP</t>
-  </si>
-  <si>
-    <t>Razón Social</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Vehículo</t>
-  </si>
-  <si>
-    <t>Placa</t>
-  </si>
-  <si>
-    <t>Comentario Cemento</t>
-  </si>
-  <si>
-    <t>MP RUC</t>
-  </si>
-  <si>
-    <t>MP Razón Social</t>
-  </si>
-  <si>
-    <t>Comentario Materia Prima</t>
+    <t>Punto Emisión Cemento</t>
+  </si>
+  <si>
+    <t>Compañía MP</t>
   </si>
 </sst>
 </file>
@@ -560,10 +482,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,40 +495,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -617,7 +539,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -628,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -639,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -650,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -661,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -672,7 +597,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -683,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -694,7 +619,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -705,7 +630,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -716,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -727,7 +655,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -738,186 +666,11 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B13"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
@@ -15,14 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$L$25</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>Documentos/1891750060001 Frevitransport Cia. Ltda./FC/001-002-000000794</t>
   </si>
@@ -30,64 +30,22 @@
     <t>001-002-000000794</t>
   </si>
   <si>
-    <t>Documentos/1802085157001 FREIRE CONSTANTE LAURA TER/FC/001-002-000000866</t>
-  </si>
-  <si>
-    <t>001-002-000000866</t>
-  </si>
-  <si>
-    <t>Documentos/1802085157001 FREIRE CONSTANTE LAURA TER/FC/001-002-000000845</t>
-  </si>
-  <si>
-    <t>001-002-000000845</t>
-  </si>
-  <si>
-    <t>Documentos/1793148727001 ALMERCATO S.A.S./FC/001-001-000008878</t>
-  </si>
-  <si>
-    <t>001-001-000008878</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000057</t>
-  </si>
-  <si>
-    <t>001-009-000000057</t>
-  </si>
-  <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000056</t>
   </si>
   <si>
     <t>001-009-000000056</t>
   </si>
   <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000139</t>
-  </si>
-  <si>
-    <t>001-005-000000139</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-003-000000074</t>
-  </si>
-  <si>
-    <t>001-003-000000074</t>
-  </si>
-  <si>
     <t>Documentos/1792529913001 NEW STEEL TRANSPORTES ECUA/FC/001-002-000000141</t>
   </si>
   <si>
     <t>001-002-000000141</t>
   </si>
   <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000251</t>
-  </si>
-  <si>
-    <t>001-002-000000251</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000250</t>
-  </si>
-  <si>
-    <t>001-002-000000250</t>
+    <t>Documentos/1792458005001 TRANSPORTE DE CARGA PESADA/FC/001-001-000000510</t>
+  </si>
+  <si>
+    <t>001-001-000000510</t>
   </si>
   <si>
     <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000130</t>
@@ -96,15 +54,129 @@
     <t>001-041-000000130</t>
   </si>
   <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000128</t>
+  </si>
+  <si>
+    <t>001-041-000000128</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000139</t>
+  </si>
+  <si>
+    <t>001-039-000000139</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000137</t>
+  </si>
+  <si>
+    <t>001-039-000000137</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000135</t>
+  </si>
+  <si>
+    <t>001-039-000000135</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000049</t>
+  </si>
+  <si>
+    <t>001-037-000000049</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000163</t>
+  </si>
+  <si>
+    <t>001-034-000000163</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000161</t>
+  </si>
+  <si>
+    <t>001-034-000000161</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000159</t>
+  </si>
+  <si>
+    <t>001-034-000000159</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-032-000000016</t>
+  </si>
+  <si>
+    <t>001-032-000000016</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-021-000000048</t>
+  </si>
+  <si>
+    <t>001-021-000000048</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000110</t>
+  </si>
+  <si>
+    <t>001-020-000000110</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000108</t>
+  </si>
+  <si>
+    <t>001-020-000000108</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000107</t>
+  </si>
+  <si>
+    <t>001-020-000000107</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-016-000000051</t>
+  </si>
+  <si>
+    <t>001-016-000000051</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000089</t>
+  </si>
+  <si>
+    <t>001-010-000000089</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000087</t>
+  </si>
+  <si>
+    <t>001-010-000000087</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000051</t>
+  </si>
+  <si>
+    <t>001-003-000000051</t>
+  </si>
+  <si>
+    <t>Documentos/1091730290001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000051</t>
+  </si>
+  <si>
+    <t>Documentos/1090106976001 TRANSPORTES Y CARGAS IMBAB/FC/001-009-000000056</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
     <t>Documento</t>
   </si>
   <si>
+    <t>Compañía Cemento</t>
+  </si>
+  <si>
     <t>Categoría</t>
   </si>
   <si>
+    <t>Punto Emisión Cemento</t>
+  </si>
+  <si>
     <t>COD SAP</t>
   </si>
   <si>
@@ -132,22 +204,106 @@
     <t>Comentario Materia Prima</t>
   </si>
   <si>
-    <t>Compañía Cemento</t>
-  </si>
-  <si>
     <t>Caso de revisión manual</t>
   </si>
   <si>
-    <t>No cumple cumple con los parámetros</t>
-  </si>
-  <si>
-    <t>Punto Emisión MP</t>
-  </si>
-  <si>
-    <t>Punto Emisión Cemento</t>
-  </si>
-  <si>
-    <t>Compañía MP</t>
+    <t>VIVERO MORALES MILTON CICERON</t>
+  </si>
+  <si>
+    <t>18UE715</t>
+  </si>
+  <si>
+    <t>IAA2641</t>
+  </si>
+  <si>
+    <t>18UE509</t>
+  </si>
+  <si>
+    <t>IAA2628</t>
+  </si>
+  <si>
+    <t>TAPIA MEJIA GEOVANNY FRANCISCO</t>
+  </si>
+  <si>
+    <t>18UE679</t>
+  </si>
+  <si>
+    <t>TAA3550</t>
+  </si>
+  <si>
+    <t>RAMIREZ BAEZ FIDEL RAMIRO</t>
+  </si>
+  <si>
+    <t>18UE689</t>
+  </si>
+  <si>
+    <t>IAA1139</t>
+  </si>
+  <si>
+    <t>18UE683</t>
+  </si>
+  <si>
+    <t>UAA1247</t>
+  </si>
+  <si>
+    <t>18UE550</t>
+  </si>
+  <si>
+    <t>IAA1670</t>
+  </si>
+  <si>
+    <t>PUPIALES URRESTA GUSTAVO</t>
+  </si>
+  <si>
+    <t>18UE728</t>
+  </si>
+  <si>
+    <t>IAA1686</t>
+  </si>
+  <si>
+    <t>MORALES GARZON CHRISTIAN SANTIAGO</t>
+  </si>
+  <si>
+    <t>18UE792</t>
+  </si>
+  <si>
+    <t>MAA6909</t>
+  </si>
+  <si>
+    <t>18UE668</t>
+  </si>
+  <si>
+    <t>IAA1690</t>
+  </si>
+  <si>
+    <t>18UE001</t>
+  </si>
+  <si>
+    <t>IAA1469</t>
+  </si>
+  <si>
+    <t>FUERTES RUEDA HUGO BALDOMERO</t>
+  </si>
+  <si>
+    <t>18UE711</t>
+  </si>
+  <si>
+    <t>IAI2550</t>
+  </si>
+  <si>
+    <t>18UE630</t>
+  </si>
+  <si>
+    <t>JBB0334</t>
+  </si>
+  <si>
+    <t>BENAVIDES BAEZ RODRIGO NEPTALI</t>
+  </si>
+  <si>
+    <t>18UE549</t>
+  </si>
+  <si>
+    <t>IAA1096</t>
   </si>
 </sst>
 </file>
@@ -482,10 +638,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,40 +651,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="L1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -539,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -553,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -564,7 +720,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -575,7 +734,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -586,7 +748,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>1013564</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>4700005594</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -597,7 +774,22 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>1013564</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7">
+        <v>4700005594</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -608,7 +800,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -619,7 +811,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -630,10 +822,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -644,7 +833,22 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1021912</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>4700005548</v>
+      </c>
+      <c r="G11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -655,7 +859,22 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>1013556</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>4700005619</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -666,11 +885,293 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>1013556</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13">
+        <v>4700005619</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>1013556</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14">
+        <v>4700005619</v>
+      </c>
+      <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>10005628</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15">
+        <v>4700005637</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>1021830</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17">
+        <v>4700005598</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>1021830</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <v>4700005598</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>1021830</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19">
+        <v>4700005598</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>1020060</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21">
+        <v>4700005575</v>
+      </c>
+      <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>1020060</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22">
+        <v>4700005575</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23">
+        <v>1013571</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>4700005447</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24">
+        <v>1013571</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>4700005447</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B13"/>
+  <autoFilter ref="A1:L25"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
@@ -15,151 +15,139 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$L$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$C$22</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
-  <si>
-    <t>Documentos/1891750060001 Frevitransport Cia. Ltda./FC/001-002-000000794</t>
-  </si>
-  <si>
-    <t>001-002-000000794</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000056</t>
-  </si>
-  <si>
-    <t>001-009-000000056</t>
-  </si>
-  <si>
-    <t>Documentos/1792529913001 NEW STEEL TRANSPORTES ECUA/FC/001-002-000000141</t>
-  </si>
-  <si>
-    <t>001-002-000000141</t>
-  </si>
-  <si>
-    <t>Documentos/1792458005001 TRANSPORTE DE CARGA PESADA/FC/001-001-000000510</t>
-  </si>
-  <si>
-    <t>001-001-000000510</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000130</t>
-  </si>
-  <si>
-    <t>001-041-000000130</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000128</t>
-  </si>
-  <si>
-    <t>001-041-000000128</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000139</t>
-  </si>
-  <si>
-    <t>001-039-000000139</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000137</t>
-  </si>
-  <si>
-    <t>001-039-000000137</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000135</t>
-  </si>
-  <si>
-    <t>001-039-000000135</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000049</t>
-  </si>
-  <si>
-    <t>001-037-000000049</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000163</t>
-  </si>
-  <si>
-    <t>001-034-000000163</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000161</t>
-  </si>
-  <si>
-    <t>001-034-000000161</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000159</t>
-  </si>
-  <si>
-    <t>001-034-000000159</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-032-000000016</t>
-  </si>
-  <si>
-    <t>001-032-000000016</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-021-000000048</t>
-  </si>
-  <si>
-    <t>001-021-000000048</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000110</t>
-  </si>
-  <si>
-    <t>001-020-000000110</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000108</t>
-  </si>
-  <si>
-    <t>001-020-000000108</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000107</t>
-  </si>
-  <si>
-    <t>001-020-000000107</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-016-000000051</t>
-  </si>
-  <si>
-    <t>001-016-000000051</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000089</t>
-  </si>
-  <si>
-    <t>001-010-000000089</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000087</t>
-  </si>
-  <si>
-    <t>001-010-000000087</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000051</t>
-  </si>
-  <si>
-    <t>001-003-000000051</t>
-  </si>
-  <si>
-    <t>Documentos/1091730290001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000051</t>
-  </si>
-  <si>
-    <t>Documentos/1090106976001 TRANSPORTES Y CARGAS IMBAB/FC/001-009-000000056</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+  <si>
+    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000057</t>
+  </si>
+  <si>
+    <t>001-009-000000057</t>
+  </si>
+  <si>
+    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000139</t>
+  </si>
+  <si>
+    <t>001-005-000000139</t>
+  </si>
+  <si>
+    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-003-000000074</t>
+  </si>
+  <si>
+    <t>001-003-000000074</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000251</t>
+  </si>
+  <si>
+    <t>001-002-000000251</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000250</t>
+  </si>
+  <si>
+    <t>001-002-000000250</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000249</t>
+  </si>
+  <si>
+    <t>001-002-000000249</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000248</t>
+  </si>
+  <si>
+    <t>001-002-000000248</t>
+  </si>
+  <si>
+    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000095</t>
+  </si>
+  <si>
+    <t>001-006-000000095</t>
+  </si>
+  <si>
+    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000093</t>
+  </si>
+  <si>
+    <t>001-006-000000093</t>
+  </si>
+  <si>
+    <t>Documentos/1792333652001 SERVICIO DE TRANSPORTE DE/FC/001-015-000000057</t>
+  </si>
+  <si>
+    <t>001-015-000000057</t>
+  </si>
+  <si>
+    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-011-000000048</t>
+  </si>
+  <si>
+    <t>001-011-000000048</t>
+  </si>
+  <si>
+    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-010-000000054</t>
+  </si>
+  <si>
+    <t>001-010-000000054</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000131</t>
+  </si>
+  <si>
+    <t>001-041-000000131</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000129</t>
+  </si>
+  <si>
+    <t>001-041-000000129</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000140</t>
+  </si>
+  <si>
+    <t>001-039-000000140</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000138</t>
+  </si>
+  <si>
+    <t>001-039-000000138</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000136</t>
+  </si>
+  <si>
+    <t>001-039-000000136</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000050</t>
+  </si>
+  <si>
+    <t>001-037-000000050</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000165</t>
+  </si>
+  <si>
+    <t>001-034-000000165</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000164</t>
+  </si>
+  <si>
+    <t>001-034-000000164</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000162</t>
+  </si>
+  <si>
+    <t>001-034-000000162</t>
   </si>
   <si>
     <t>Path</t>
@@ -168,13 +156,13 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>Compañía Cemento</t>
-  </si>
-  <si>
     <t>Categoría</t>
   </si>
   <si>
-    <t>Punto Emisión Cemento</t>
+    <t>Punto Emisión MP</t>
+  </si>
+  <si>
+    <t>Compañía MP</t>
   </si>
   <si>
     <t>COD SAP</t>
@@ -202,108 +190,6 @@
   </si>
   <si>
     <t>Comentario Materia Prima</t>
-  </si>
-  <si>
-    <t>Caso de revisión manual</t>
-  </si>
-  <si>
-    <t>VIVERO MORALES MILTON CICERON</t>
-  </si>
-  <si>
-    <t>18UE715</t>
-  </si>
-  <si>
-    <t>IAA2641</t>
-  </si>
-  <si>
-    <t>18UE509</t>
-  </si>
-  <si>
-    <t>IAA2628</t>
-  </si>
-  <si>
-    <t>TAPIA MEJIA GEOVANNY FRANCISCO</t>
-  </si>
-  <si>
-    <t>18UE679</t>
-  </si>
-  <si>
-    <t>TAA3550</t>
-  </si>
-  <si>
-    <t>RAMIREZ BAEZ FIDEL RAMIRO</t>
-  </si>
-  <si>
-    <t>18UE689</t>
-  </si>
-  <si>
-    <t>IAA1139</t>
-  </si>
-  <si>
-    <t>18UE683</t>
-  </si>
-  <si>
-    <t>UAA1247</t>
-  </si>
-  <si>
-    <t>18UE550</t>
-  </si>
-  <si>
-    <t>IAA1670</t>
-  </si>
-  <si>
-    <t>PUPIALES URRESTA GUSTAVO</t>
-  </si>
-  <si>
-    <t>18UE728</t>
-  </si>
-  <si>
-    <t>IAA1686</t>
-  </si>
-  <si>
-    <t>MORALES GARZON CHRISTIAN SANTIAGO</t>
-  </si>
-  <si>
-    <t>18UE792</t>
-  </si>
-  <si>
-    <t>MAA6909</t>
-  </si>
-  <si>
-    <t>18UE668</t>
-  </si>
-  <si>
-    <t>IAA1690</t>
-  </si>
-  <si>
-    <t>18UE001</t>
-  </si>
-  <si>
-    <t>IAA1469</t>
-  </si>
-  <si>
-    <t>FUERTES RUEDA HUGO BALDOMERO</t>
-  </si>
-  <si>
-    <t>18UE711</t>
-  </si>
-  <si>
-    <t>IAI2550</t>
-  </si>
-  <si>
-    <t>18UE630</t>
-  </si>
-  <si>
-    <t>JBB0334</t>
-  </si>
-  <si>
-    <t>BENAVIDES BAEZ RODRIGO NEPTALI</t>
-  </si>
-  <si>
-    <t>18UE549</t>
-  </si>
-  <si>
-    <t>IAA1096</t>
   </si>
 </sst>
 </file>
@@ -638,7 +524,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -651,40 +537,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>53</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>55</v>
-      </c>
-      <c r="I1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -695,10 +581,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -709,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -720,10 +603,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -734,10 +614,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -748,22 +625,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6">
-        <v>1013564</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6">
-        <v>4700005594</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -774,22 +636,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>1013564</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7">
-        <v>4700005594</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -800,7 +647,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -811,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -822,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -833,22 +680,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11">
-        <v>1021912</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11">
-        <v>4700005548</v>
-      </c>
-      <c r="G11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -859,22 +691,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <v>1013556</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12">
-        <v>4700005619</v>
-      </c>
-      <c r="G12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -885,22 +702,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>1013556</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13">
-        <v>4700005619</v>
-      </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -911,22 +713,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14">
-        <v>1013556</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14">
-        <v>4700005619</v>
-      </c>
-      <c r="G14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -937,22 +724,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15">
-        <v>10005628</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15">
-        <v>4700005637</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -963,10 +735,10 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -974,25 +746,10 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>1021830</v>
-      </c>
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17">
-        <v>4700005598</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1000,25 +757,10 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18">
-        <v>1021830</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18">
-        <v>4700005598</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1026,25 +768,10 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>1021830</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19">
-        <v>4700005598</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1052,10 +779,10 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1063,25 +790,10 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>1020060</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21">
-        <v>4700005575</v>
-      </c>
-      <c r="G21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -1089,89 +801,10 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>1020060</v>
-      </c>
-      <c r="E22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22">
-        <v>4700005575</v>
-      </c>
-      <c r="G22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23">
-        <v>1013571</v>
-      </c>
-      <c r="E23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23">
-        <v>4700005447</v>
-      </c>
-      <c r="G23" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>1013571</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24">
-        <v>4700005447</v>
-      </c>
-      <c r="G24" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L25"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
@@ -15,14 +15,14 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$C$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$L$13</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000057</t>
   </si>
@@ -42,60 +42,6 @@
     <t>001-003-000000074</t>
   </si>
   <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000251</t>
-  </si>
-  <si>
-    <t>001-002-000000251</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000250</t>
-  </si>
-  <si>
-    <t>001-002-000000250</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000249</t>
-  </si>
-  <si>
-    <t>001-002-000000249</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000248</t>
-  </si>
-  <si>
-    <t>001-002-000000248</t>
-  </si>
-  <si>
-    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000095</t>
-  </si>
-  <si>
-    <t>001-006-000000095</t>
-  </si>
-  <si>
-    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000093</t>
-  </si>
-  <si>
-    <t>001-006-000000093</t>
-  </si>
-  <si>
-    <t>Documentos/1792333652001 SERVICIO DE TRANSPORTE DE/FC/001-015-000000057</t>
-  </si>
-  <si>
-    <t>001-015-000000057</t>
-  </si>
-  <si>
-    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-011-000000048</t>
-  </si>
-  <si>
-    <t>001-011-000000048</t>
-  </si>
-  <si>
-    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-010-000000054</t>
-  </si>
-  <si>
-    <t>001-010-000000054</t>
-  </si>
-  <si>
     <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000131</t>
   </si>
   <si>
@@ -108,28 +54,43 @@
     <t>001-041-000000129</t>
   </si>
   <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000140</t>
-  </si>
-  <si>
-    <t>001-039-000000140</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000138</t>
-  </si>
-  <si>
-    <t>001-039-000000138</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000136</t>
-  </si>
-  <si>
-    <t>001-039-000000136</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000050</t>
-  </si>
-  <si>
-    <t>001-037-000000050</t>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Punto Emisión MP</t>
+  </si>
+  <si>
+    <t>COD SAP</t>
+  </si>
+  <si>
+    <t>Razón Social</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t>Vehículo</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Comentario factura</t>
+  </si>
+  <si>
+    <t>VIVEROMORALESMILTONCICERON</t>
+  </si>
+  <si>
+    <t>NARANJOJUANMARCELO</t>
+  </si>
+  <si>
+    <t>ALQUINGALUCEROWILTERFABIAN</t>
   </si>
   <si>
     <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000165</t>
@@ -138,58 +99,7 @@
     <t>001-034-000000165</t>
   </si>
   <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000164</t>
-  </si>
-  <si>
-    <t>001-034-000000164</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000162</t>
-  </si>
-  <si>
-    <t>001-034-000000162</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Documento</t>
-  </si>
-  <si>
-    <t>Categoría</t>
-  </si>
-  <si>
-    <t>Punto Emisión MP</t>
-  </si>
-  <si>
-    <t>Compañía MP</t>
-  </si>
-  <si>
-    <t>COD SAP</t>
-  </si>
-  <si>
-    <t>Razón Social</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Vehículo</t>
-  </si>
-  <si>
-    <t>Placa</t>
-  </si>
-  <si>
-    <t>Comentario Cemento</t>
-  </si>
-  <si>
-    <t>MP RUC</t>
-  </si>
-  <si>
-    <t>MP Razón Social</t>
-  </si>
-  <si>
-    <t>Comentario Materia Prima</t>
+    <t>RAMIREZBAEZFIDELRAMIRO</t>
   </si>
 </sst>
 </file>
@@ -524,10 +434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,273 +445,126 @@
     <col min="1" max="2" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>4400160836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>4400151048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>4400160836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
+      <c r="F7">
+        <v>4400151048</v>
       </c>
     </row>
   </sheetData>

--- a/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
@@ -15,43 +15,139 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$L$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$I$22</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000057</t>
-  </si>
-  <si>
-    <t>001-009-000000057</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000139</t>
-  </si>
-  <si>
-    <t>001-005-000000139</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-003-000000074</t>
-  </si>
-  <si>
-    <t>001-003-000000074</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000131</t>
-  </si>
-  <si>
-    <t>001-041-000000131</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000129</t>
-  </si>
-  <si>
-    <t>001-041-000000129</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+  <si>
+    <t>Documentos/1891750060001 Frevitransport Cia. Ltda./FC/001-002-000000794</t>
+  </si>
+  <si>
+    <t>001-002-000000794</t>
+  </si>
+  <si>
+    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000056</t>
+  </si>
+  <si>
+    <t>001-009-000000056</t>
+  </si>
+  <si>
+    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-008-000000050</t>
+  </si>
+  <si>
+    <t>001-008-000000050</t>
+  </si>
+  <si>
+    <t>Documentos/1792529913001 NEW STEEL TRANSPORTES ECUA/FC/001-002-000000141</t>
+  </si>
+  <si>
+    <t>001-002-000000141</t>
+  </si>
+  <si>
+    <t>Documentos/1792458005001 TRANSPORTE DE CARGA PESADA/FC/001-001-000000510</t>
+  </si>
+  <si>
+    <t>001-001-000000510</t>
+  </si>
+  <si>
+    <t>Documentos/1792458005001 TRANSPORTE DE CARGA PESADA/FC/001-001-000000509</t>
+  </si>
+  <si>
+    <t>001-001-000000509</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000246</t>
+  </si>
+  <si>
+    <t>001-002-000000246</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000245</t>
+  </si>
+  <si>
+    <t>001-002-000000245</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000244</t>
+  </si>
+  <si>
+    <t>001-002-000000244</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000243</t>
+  </si>
+  <si>
+    <t>001-002-000000243</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000242</t>
+  </si>
+  <si>
+    <t>001-002-000000242</t>
+  </si>
+  <si>
+    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000092</t>
+  </si>
+  <si>
+    <t>001-006-000000092</t>
+  </si>
+  <si>
+    <t>Documentos/1792333652001 SERVICIO DE TRANSPORTE DE/FC/001-015-000000056</t>
+  </si>
+  <si>
+    <t>001-015-000000056</t>
+  </si>
+  <si>
+    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-011-000000047</t>
+  </si>
+  <si>
+    <t>001-011-000000047</t>
+  </si>
+  <si>
+    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-010-000000053</t>
+  </si>
+  <si>
+    <t>001-010-000000053</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-006-000000073</t>
+  </si>
+  <si>
+    <t>001-006-000000073</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-004-000000074</t>
+  </si>
+  <si>
+    <t>001-004-000000074</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000147</t>
+  </si>
+  <si>
+    <t>001-003-000000147</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000145</t>
+  </si>
+  <si>
+    <t>001-003-000000145</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000143</t>
+  </si>
+  <si>
+    <t>001-003-000000143</t>
+  </si>
+  <si>
+    <t>Documentos/1791899644001 COMPANIA TRANSPORTE LA INT/FC/002-257-000000035</t>
+  </si>
+  <si>
+    <t>002-257-000000035</t>
   </si>
   <si>
     <t>Path</t>
@@ -63,9 +159,6 @@
     <t>Categoría</t>
   </si>
   <si>
-    <t>Punto Emisión MP</t>
-  </si>
-  <si>
     <t>COD SAP</t>
   </si>
   <si>
@@ -84,22 +177,22 @@
     <t>Comentario factura</t>
   </si>
   <si>
-    <t>VIVEROMORALESMILTONCICERON</t>
-  </si>
-  <si>
-    <t>NARANJOJUANMARCELO</t>
-  </si>
-  <si>
-    <t>ALQUINGALUCEROWILTERFABIAN</t>
-  </si>
-  <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000165</t>
-  </si>
-  <si>
-    <t>001-034-000000165</t>
-  </si>
-  <si>
-    <t>RAMIREZBAEZFIDELRAMIRO</t>
+    <t>Compañía Cemento</t>
+  </si>
+  <si>
+    <t>Caso de revisión manual</t>
+  </si>
+  <si>
+    <t>Punto Emisión Cemento</t>
+  </si>
+  <si>
+    <t>CADENA CIFUENTES IVON SILVANA</t>
+  </si>
+  <si>
+    <t>18UE663</t>
+  </si>
+  <si>
+    <t>BAA1497</t>
   </si>
 </sst>
 </file>
@@ -434,10 +527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,127 +540,335 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>4400160836</v>
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>4400151048</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>1021688</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>4700005449</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <v>4400160836</v>
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>4400151048</v>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I22"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
@@ -15,139 +15,424 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$I$70</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
-  <si>
-    <t>Documentos/1891750060001 Frevitransport Cia. Ltda./FC/001-002-000000794</t>
-  </si>
-  <si>
-    <t>001-002-000000794</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-009-000000056</t>
-  </si>
-  <si>
-    <t>001-009-000000056</t>
-  </si>
-  <si>
-    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-008-000000050</t>
-  </si>
-  <si>
-    <t>001-008-000000050</t>
-  </si>
-  <si>
-    <t>Documentos/1792529913001 NEW STEEL TRANSPORTES ECUA/FC/001-002-000000141</t>
-  </si>
-  <si>
-    <t>001-002-000000141</t>
-  </si>
-  <si>
-    <t>Documentos/1792458005001 TRANSPORTE DE CARGA PESADA/FC/001-001-000000510</t>
-  </si>
-  <si>
-    <t>001-001-000000510</t>
-  </si>
-  <si>
-    <t>Documentos/1792458005001 TRANSPORTE DE CARGA PESADA/FC/001-001-000000509</t>
-  </si>
-  <si>
-    <t>001-001-000000509</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000246</t>
-  </si>
-  <si>
-    <t>001-002-000000246</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000245</t>
-  </si>
-  <si>
-    <t>001-002-000000245</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000244</t>
-  </si>
-  <si>
-    <t>001-002-000000244</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000243</t>
-  </si>
-  <si>
-    <t>001-002-000000243</t>
-  </si>
-  <si>
-    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000242</t>
-  </si>
-  <si>
-    <t>001-002-000000242</t>
-  </si>
-  <si>
-    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000092</t>
-  </si>
-  <si>
-    <t>001-006-000000092</t>
-  </si>
-  <si>
-    <t>Documentos/1792333652001 SERVICIO DE TRANSPORTE DE/FC/001-015-000000056</t>
-  </si>
-  <si>
-    <t>001-015-000000056</t>
-  </si>
-  <si>
-    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-011-000000047</t>
-  </si>
-  <si>
-    <t>001-011-000000047</t>
-  </si>
-  <si>
-    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-010-000000053</t>
-  </si>
-  <si>
-    <t>001-010-000000053</t>
-  </si>
-  <si>
-    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-006-000000073</t>
-  </si>
-  <si>
-    <t>001-006-000000073</t>
-  </si>
-  <si>
-    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-004-000000074</t>
-  </si>
-  <si>
-    <t>001-004-000000074</t>
-  </si>
-  <si>
-    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000147</t>
-  </si>
-  <si>
-    <t>001-003-000000147</t>
-  </si>
-  <si>
-    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000145</t>
-  </si>
-  <si>
-    <t>001-003-000000145</t>
-  </si>
-  <si>
-    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000143</t>
-  </si>
-  <si>
-    <t>001-003-000000143</t>
-  </si>
-  <si>
-    <t>Documentos/1791899644001 COMPANIA TRANSPORTE LA INT/FC/002-257-000000035</t>
-  </si>
-  <si>
-    <t>002-257-000000035</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="150">
+  <si>
+    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000139</t>
+  </si>
+  <si>
+    <t>001-005-000000139</t>
+  </si>
+  <si>
+    <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-003-000000074</t>
+  </si>
+  <si>
+    <t>001-003-000000074</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000251</t>
+  </si>
+  <si>
+    <t>001-002-000000251</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000250</t>
+  </si>
+  <si>
+    <t>001-002-000000250</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000249</t>
+  </si>
+  <si>
+    <t>001-002-000000249</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000248</t>
+  </si>
+  <si>
+    <t>001-002-000000248</t>
+  </si>
+  <si>
+    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000095</t>
+  </si>
+  <si>
+    <t>001-006-000000095</t>
+  </si>
+  <si>
+    <t>Documentos/1792400856001 CALDECARGO COMPANIA DE TRA/FC/001-006-000000093</t>
+  </si>
+  <si>
+    <t>001-006-000000093</t>
+  </si>
+  <si>
+    <t>Documentos/1792333652001 SERVICIO DE TRANSPORTE DE/FC/001-015-000000057</t>
+  </si>
+  <si>
+    <t>001-015-000000057</t>
+  </si>
+  <si>
+    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-011-000000048</t>
+  </si>
+  <si>
+    <t>001-011-000000048</t>
+  </si>
+  <si>
+    <t>Documentos/1792036089001 TRANSVOLCA/FC/001-010-000000054</t>
+  </si>
+  <si>
+    <t>001-010-000000054</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-027-000000026</t>
+  </si>
+  <si>
+    <t>001-027-000000026</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-025-000000054</t>
+  </si>
+  <si>
+    <t>001-025-000000054</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-025-000000053</t>
+  </si>
+  <si>
+    <t>001-025-000000053</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-025-000000052</t>
+  </si>
+  <si>
+    <t>001-025-000000052</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-023-000000032</t>
+  </si>
+  <si>
+    <t>001-023-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-023-000000031</t>
+  </si>
+  <si>
+    <t>001-023-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-023-000000030</t>
+  </si>
+  <si>
+    <t>001-023-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-023-000000029</t>
+  </si>
+  <si>
+    <t>001-023-000000029</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-022-000000033</t>
+  </si>
+  <si>
+    <t>001-022-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-022-000000032</t>
+  </si>
+  <si>
+    <t>001-022-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-022-000000031</t>
+  </si>
+  <si>
+    <t>001-022-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-022-000000030</t>
+  </si>
+  <si>
+    <t>001-022-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-021-000000034</t>
+  </si>
+  <si>
+    <t>001-021-000000034</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-021-000000033</t>
+  </si>
+  <si>
+    <t>001-021-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-021-000000032</t>
+  </si>
+  <si>
+    <t>001-021-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-021-000000031</t>
+  </si>
+  <si>
+    <t>001-021-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-020-000000033</t>
+  </si>
+  <si>
+    <t>001-020-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-020-000000032</t>
+  </si>
+  <si>
+    <t>001-020-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-018-000000030</t>
+  </si>
+  <si>
+    <t>001-018-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-018-000000029</t>
+  </si>
+  <si>
+    <t>001-018-000000029</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-018-000000028</t>
+  </si>
+  <si>
+    <t>001-018-000000028</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-018-000000027</t>
+  </si>
+  <si>
+    <t>001-018-000000027</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-017-000000033</t>
+  </si>
+  <si>
+    <t>001-017-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-017-000000032</t>
+  </si>
+  <si>
+    <t>001-017-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-017-000000031</t>
+  </si>
+  <si>
+    <t>001-017-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-017-000000030</t>
+  </si>
+  <si>
+    <t>001-017-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-015-000000034</t>
+  </si>
+  <si>
+    <t>001-015-000000034</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-015-000000033</t>
+  </si>
+  <si>
+    <t>001-015-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-015-000000032</t>
+  </si>
+  <si>
+    <t>001-015-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-015-000000031</t>
+  </si>
+  <si>
+    <t>001-015-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-014-000000038</t>
+  </si>
+  <si>
+    <t>001-014-000000038</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-014-000000037</t>
+  </si>
+  <si>
+    <t>001-014-000000037</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-014-000000036</t>
+  </si>
+  <si>
+    <t>001-014-000000036</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-014-000000035</t>
+  </si>
+  <si>
+    <t>001-014-000000035</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-013-000000054</t>
+  </si>
+  <si>
+    <t>001-013-000000054</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-013-000000053</t>
+  </si>
+  <si>
+    <t>001-013-000000053</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-013-000000052</t>
+  </si>
+  <si>
+    <t>001-013-000000052</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-013-000000051</t>
+  </si>
+  <si>
+    <t>001-013-000000051</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-012-000000026</t>
+  </si>
+  <si>
+    <t>001-012-000000026</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-011-000000049</t>
+  </si>
+  <si>
+    <t>001-011-000000049</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-011-000000048</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-010-000000031</t>
+  </si>
+  <si>
+    <t>001-010-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-010-000000030</t>
+  </si>
+  <si>
+    <t>001-010-000000030</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-010-000000029</t>
+  </si>
+  <si>
+    <t>001-010-000000029</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-009-000000025</t>
+  </si>
+  <si>
+    <t>001-009-000000025</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-007-000000042</t>
+  </si>
+  <si>
+    <t>001-007-000000042</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-007-000000041</t>
+  </si>
+  <si>
+    <t>001-007-000000041</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-007-000000040</t>
+  </si>
+  <si>
+    <t>001-007-000000040</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-006-000000074</t>
+  </si>
+  <si>
+    <t>001-006-000000074</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-004-000000075</t>
+  </si>
+  <si>
+    <t>001-004-000000075</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000148</t>
+  </si>
+  <si>
+    <t>001-003-000000148</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000146</t>
+  </si>
+  <si>
+    <t>001-003-000000146</t>
+  </si>
+  <si>
+    <t>Documentos/1791995244001 TRANSPORTE PESADO ZONA DE/FC/001-003-000000144</t>
+  </si>
+  <si>
+    <t>001-003-000000144</t>
+  </si>
+  <si>
+    <t>Documentos/1791918673001 GASOLINAS Y SERVICIOS PERE/FC/001-005-000000101</t>
+  </si>
+  <si>
+    <t>001-005-000000101</t>
+  </si>
+  <si>
+    <t>Documentos/1791918673001 GASOLINAS Y SERVICIOS PERE/FC/001-005-000000100</t>
+  </si>
+  <si>
+    <t>001-005-000000100</t>
+  </si>
+  <si>
+    <t>Documentos/1791918673001 GASOLINAS Y SERVICIOS PERE/FC/001-005-000000096</t>
+  </si>
+  <si>
+    <t>001-005-000000096</t>
+  </si>
+  <si>
+    <t>Documentos/1791896459001 COMPANIA DE TRANSPORTES Y/FC/001-005-000000027</t>
+  </si>
+  <si>
+    <t>001-005-000000027</t>
+  </si>
+  <si>
+    <t>Documentos/1791896459001 COMPANIA DE TRANSPORTES Y/FC/001-004-000000029</t>
+  </si>
+  <si>
+    <t>001-004-000000029</t>
   </si>
   <si>
     <t>Path</t>
@@ -177,22 +462,16 @@
     <t>Comentario factura</t>
   </si>
   <si>
-    <t>Compañía Cemento</t>
-  </si>
-  <si>
-    <t>Caso de revisión manual</t>
-  </si>
-  <si>
-    <t>Punto Emisión Cemento</t>
-  </si>
-  <si>
-    <t>CADENA CIFUENTES IVON SILVANA</t>
-  </si>
-  <si>
-    <t>18UE663</t>
-  </si>
-  <si>
-    <t>BAA1497</t>
+    <t>Punto Emisión MP</t>
+  </si>
+  <si>
+    <t>ALQUINGALUCEROWILTERFABIAN</t>
+  </si>
+  <si>
+    <t>ALQUINGALUCEROBYRONEDUARDO</t>
+  </si>
+  <si>
+    <t>Compañía MP</t>
   </si>
 </sst>
 </file>
@@ -527,10 +806,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,31 +819,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -575,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
+        <v>146</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -588,6 +867,15 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3">
+        <v>4400151048</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -597,22 +885,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4">
-        <v>1021688</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4">
-        <v>4700005449</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -623,10 +896,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,10 +907,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,10 +918,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -665,10 +929,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -679,10 +940,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -693,10 +951,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -707,10 +962,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -721,10 +973,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -735,10 +984,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -749,10 +995,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -763,10 +1006,7 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -777,13 +1017,10 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -791,13 +1028,10 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
@@ -805,13 +1039,10 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -819,13 +1050,10 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -833,13 +1061,10 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -847,13 +1072,10 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -861,14 +1083,403 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I22" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I22"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="141">
   <si>
     <t>Documentos/1792625769001 TRANSPORTE PESADO ALQUINGA/FC/001-005-000000139</t>
   </si>
@@ -441,37 +441,10 @@
     <t>Documento</t>
   </si>
   <si>
-    <t>Categoría</t>
-  </si>
-  <si>
-    <t>COD SAP</t>
-  </si>
-  <si>
-    <t>Razón Social</t>
-  </si>
-  <si>
-    <t>Pedido</t>
-  </si>
-  <si>
-    <t>Vehículo</t>
-  </si>
-  <si>
-    <t>Placa</t>
-  </si>
-  <si>
-    <t>Comentario factura</t>
-  </si>
-  <si>
-    <t>Punto Emisión MP</t>
-  </si>
-  <si>
-    <t>ALQUINGALUCEROWILTERFABIAN</t>
-  </si>
-  <si>
-    <t>ALQUINGALUCEROBYRONEDUARDO</t>
-  </si>
-  <si>
-    <t>Compañía MP</t>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>No hay datos</t>
   </si>
 </sst>
 </file>
@@ -806,10 +779,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,7 +790,7 @@
     <col min="1" max="2" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
@@ -827,26 +800,8 @@
       <c r="C1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -854,13 +809,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -868,16 +820,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3">
-        <v>4400151048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -885,10 +831,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -896,10 +842,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -907,10 +853,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -918,10 +864,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -929,10 +875,10 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -940,10 +886,10 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -951,10 +897,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -962,10 +908,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -973,10 +919,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -984,10 +930,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -995,10 +941,10 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1006,10 +952,10 @@
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +963,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1028,7 +974,7 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +985,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,7 +996,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,7 +1007,7 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1072,7 +1018,7 @@
         <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1083,7 +1029,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1094,7 +1040,7 @@
         <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1105,7 +1051,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1115,6 +1061,9 @@
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1123,6 +1072,9 @@
       <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1131,6 +1083,9 @@
       <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1139,6 +1094,9 @@
       <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1147,6 +1105,9 @@
       <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1155,6 +1116,9 @@
       <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1163,6 +1127,9 @@
       <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1171,133 +1138,184 @@
       <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,6 +1325,9 @@
       <c r="B49" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
@@ -1315,6 +1336,9 @@
       <c r="B50" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
@@ -1323,6 +1347,9 @@
       <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1331,6 +1358,9 @@
       <c r="B52" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -1340,7 +1370,7 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1350,6 +1380,9 @@
       <c r="B54" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
@@ -1358,6 +1391,9 @@
       <c r="B55" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -1366,6 +1402,9 @@
       <c r="B56" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
@@ -1374,6 +1413,9 @@
       <c r="B57" s="2" t="s">
         <v>110</v>
       </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
@@ -1382,6 +1424,9 @@
       <c r="B58" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
@@ -1390,6 +1435,9 @@
       <c r="B59" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
@@ -1398,6 +1446,9 @@
       <c r="B60" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
@@ -1406,6 +1457,9 @@
       <c r="B61" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -1414,6 +1468,9 @@
       <c r="B62" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1422,6 +1479,9 @@
       <c r="B63" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
@@ -1430,53 +1490,74 @@
       <c r="B64" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
+++ b/Robot Cuentas por Cobrar/Config/Archivos/UiTree.xlsx
@@ -15,14 +15,86 @@
     <sheet name="UiTree" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$I$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">UiTree!$A$1:$L$106</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="262">
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000309</t>
+  </si>
+  <si>
+    <t>001-002-000000309</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000308</t>
+  </si>
+  <si>
+    <t>001-002-000000308</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000307</t>
+  </si>
+  <si>
+    <t>001-002-000000307</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000306</t>
+  </si>
+  <si>
+    <t>001-002-000000306</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000305</t>
+  </si>
+  <si>
+    <t>001-002-000000305</t>
+  </si>
+  <si>
+    <t>Documentos/1792454514001 COMPANIA DE TRANSPORTE DE/FC/001-002-000000304</t>
+  </si>
+  <si>
+    <t>001-002-000000304</t>
+  </si>
+  <si>
+    <t>Documentos/1791853857001 CETSO TRANSPORTES EXTRAPES/FC/001-801-000001666</t>
+  </si>
+  <si>
+    <t>001-801-000001666</t>
+  </si>
+  <si>
+    <t>Documentos/1791853857001 CETSO TRANSPORTES EXTRAPES/FC/001-801-000001665</t>
+  </si>
+  <si>
+    <t>001-801-000001665</t>
+  </si>
+  <si>
+    <t>Documentos/1791853857001 CETSO TRANSPORTES EXTRAPES/FC/001-801-000001664</t>
+  </si>
+  <si>
+    <t>001-801-000001664</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-042-000000004</t>
+  </si>
+  <si>
+    <t>001-042-000000004</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-042-000000003</t>
+  </si>
+  <si>
+    <t>001-042-000000003</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000167</t>
+  </si>
+  <si>
+    <t>001-041-000000167</t>
+  </si>
   <si>
     <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000166</t>
   </si>
@@ -30,10 +102,16 @@
     <t>001-041-000000166</t>
   </si>
   <si>
-    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000163</t>
-  </si>
-  <si>
-    <t>001-041-000000163</t>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000164</t>
+  </si>
+  <si>
+    <t>001-041-000000164</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000162</t>
+  </si>
+  <si>
+    <t>001-041-000000162</t>
   </si>
   <si>
     <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-041-000000161</t>
@@ -42,12 +120,540 @@
     <t>001-041-000000161</t>
   </si>
   <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000182</t>
+  </si>
+  <si>
+    <t>001-039-000000182</t>
+  </si>
+  <si>
     <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000181</t>
   </si>
   <si>
     <t>001-039-000000181</t>
   </si>
   <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000180</t>
+  </si>
+  <si>
+    <t>001-039-000000180</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000179</t>
+  </si>
+  <si>
+    <t>001-039-000000179</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000178</t>
+  </si>
+  <si>
+    <t>001-039-000000178</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000177</t>
+  </si>
+  <si>
+    <t>001-039-000000177</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000176</t>
+  </si>
+  <si>
+    <t>001-039-000000176</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-039-000000175</t>
+  </si>
+  <si>
+    <t>001-039-000000175</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000062</t>
+  </si>
+  <si>
+    <t>001-037-000000062</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000061</t>
+  </si>
+  <si>
+    <t>001-037-000000061</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000203</t>
+  </si>
+  <si>
+    <t>001-034-000000203</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000202</t>
+  </si>
+  <si>
+    <t>001-034-000000202</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000201</t>
+  </si>
+  <si>
+    <t>001-034-000000201</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000200</t>
+  </si>
+  <si>
+    <t>001-034-000000200</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000199</t>
+  </si>
+  <si>
+    <t>001-034-000000199</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-034-000000198</t>
+  </si>
+  <si>
+    <t>001-034-000000198</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-032-000000034</t>
+  </si>
+  <si>
+    <t>001-032-000000034</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-032-000000033</t>
+  </si>
+  <si>
+    <t>001-032-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-029-000000056</t>
+  </si>
+  <si>
+    <t>001-029-000000056</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-028-000000113</t>
+  </si>
+  <si>
+    <t>001-028-000000113</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-028-000000112</t>
+  </si>
+  <si>
+    <t>001-028-000000112</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-021-000000062</t>
+  </si>
+  <si>
+    <t>001-021-000000062</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-021-000000061</t>
+  </si>
+  <si>
+    <t>001-021-000000061</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-021-000000060</t>
+  </si>
+  <si>
+    <t>001-021-000000060</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000154</t>
+  </si>
+  <si>
+    <t>001-020-000000154</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000153</t>
+  </si>
+  <si>
+    <t>001-020-000000153</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000152</t>
+  </si>
+  <si>
+    <t>001-020-000000152</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000151</t>
+  </si>
+  <si>
+    <t>001-020-000000151</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000150</t>
+  </si>
+  <si>
+    <t>001-020-000000150</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-016-000000064</t>
+  </si>
+  <si>
+    <t>001-016-000000064</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-016-000000063</t>
+  </si>
+  <si>
+    <t>001-016-000000063</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-015-000000072</t>
+  </si>
+  <si>
+    <t>001-015-000000072</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000108</t>
+  </si>
+  <si>
+    <t>001-010-000000108</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-010-000000107</t>
+  </si>
+  <si>
+    <t>001-010-000000107</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000065</t>
+  </si>
+  <si>
+    <t>001-003-000000065</t>
+  </si>
+  <si>
+    <t>Documentos/1791823060001 COMPANIA DE TRANSPORTE PES/FC/001-003-000000064</t>
+  </si>
+  <si>
+    <t>001-003-000000064</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-038-000000014</t>
+  </si>
+  <si>
+    <t>001-038-000000014</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-038-000000013</t>
+  </si>
+  <si>
+    <t>001-038-000000013</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000034</t>
+  </si>
+  <si>
+    <t>001-037-000000034</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000033</t>
+  </si>
+  <si>
+    <t>001-037-000000033</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000032</t>
+  </si>
+  <si>
+    <t>001-037-000000032</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-037-000000031</t>
+  </si>
+  <si>
+    <t>001-037-000000031</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-036-000000012</t>
+  </si>
+  <si>
+    <t>001-036-000000012</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-036-000000011</t>
+  </si>
+  <si>
+    <t>001-036-000000011</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-033-000000073</t>
+  </si>
+  <si>
+    <t>001-033-000000073</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-033-000000072</t>
+  </si>
+  <si>
+    <t>001-033-000000072</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-033-000000071</t>
+  </si>
+  <si>
+    <t>001-033-000000071</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-033-000000070</t>
+  </si>
+  <si>
+    <t>001-033-000000070</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-031-000000067</t>
+  </si>
+  <si>
+    <t>001-031-000000067</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-031-000000066</t>
+  </si>
+  <si>
+    <t>001-031-000000066</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-027-000000056</t>
+  </si>
+  <si>
+    <t>001-027-000000056</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-027-000000055</t>
+  </si>
+  <si>
+    <t>001-027-000000055</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-026-000000066</t>
+  </si>
+  <si>
+    <t>001-026-000000066</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-026-000000065</t>
+  </si>
+  <si>
+    <t>001-026-000000065</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-026-000000064</t>
+  </si>
+  <si>
+    <t>001-026-000000064</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-025-000000041</t>
+  </si>
+  <si>
+    <t>001-025-000000041</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-025-000000040</t>
+  </si>
+  <si>
+    <t>001-025-000000040</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-024-000000029</t>
+  </si>
+  <si>
+    <t>001-024-000000029</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000077</t>
+  </si>
+  <si>
+    <t>001-020-000000077</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-020-000000076</t>
+  </si>
+  <si>
+    <t>001-020-000000076</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-017-000000072</t>
+  </si>
+  <si>
+    <t>001-017-000000072</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-017-000000071</t>
+  </si>
+  <si>
+    <t>001-017-000000071</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-016-000000073</t>
+  </si>
+  <si>
+    <t>001-016-000000073</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-016-000000072</t>
+  </si>
+  <si>
+    <t>001-016-000000072</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-014-000000090</t>
+  </si>
+  <si>
+    <t>001-014-000000090</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-014-000000089</t>
+  </si>
+  <si>
+    <t>001-014-000000089</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-014-000000088</t>
+  </si>
+  <si>
+    <t>001-014-000000088</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-013-000000070</t>
+  </si>
+  <si>
+    <t>001-013-000000070</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-013-000000069</t>
+  </si>
+  <si>
+    <t>001-013-000000069</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-011-000000077</t>
+  </si>
+  <si>
+    <t>001-011-000000077</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-011-000000076</t>
+  </si>
+  <si>
+    <t>001-011-000000076</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-008-000000067</t>
+  </si>
+  <si>
+    <t>001-008-000000067</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-008-000000066</t>
+  </si>
+  <si>
+    <t>001-008-000000066</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-007-000000139</t>
+  </si>
+  <si>
+    <t>001-007-000000139</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-007-000000138</t>
+  </si>
+  <si>
+    <t>001-007-000000138</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-007-000000137</t>
+  </si>
+  <si>
+    <t>001-007-000000137</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-007-000000136</t>
+  </si>
+  <si>
+    <t>001-007-000000136</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-007-000000135</t>
+  </si>
+  <si>
+    <t>001-007-000000135</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-007-000000134</t>
+  </si>
+  <si>
+    <t>001-007-000000134</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-006-000000081</t>
+  </si>
+  <si>
+    <t>001-006-000000081</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-006-000000080</t>
+  </si>
+  <si>
+    <t>001-006-000000080</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-005-000000045</t>
+  </si>
+  <si>
+    <t>001-005-000000045</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-004-000000161</t>
+  </si>
+  <si>
+    <t>001-004-000000161</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-004-000000160</t>
+  </si>
+  <si>
+    <t>001-004-000000160</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-004-000000159</t>
+  </si>
+  <si>
+    <t>001-004-000000159</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-004-000000158</t>
+  </si>
+  <si>
+    <t>001-004-000000158</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-002-000000085</t>
+  </si>
+  <si>
+    <t>001-002-000000085</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-002-000000084</t>
+  </si>
+  <si>
+    <t>001-002-000000084</t>
+  </si>
+  <si>
+    <t>Documentos/1091713124001 COMPANIA DE TRANSPORTE PES/FC/001-002-000000083</t>
+  </si>
+  <si>
+    <t>001-002-000000083</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -75,7 +681,133 @@
     <t>Comentario factura</t>
   </si>
   <si>
+    <t>Compañía MP</t>
+  </si>
+  <si>
+    <t>Compañía Cemento</t>
+  </si>
+  <si>
+    <t>Caso de revisión manual</t>
+  </si>
+  <si>
+    <t>No cumple cumple con los parámetros</t>
+  </si>
+  <si>
+    <t>Punto Emisión MP</t>
+  </si>
+  <si>
     <t>Punto Emisión Cemento</t>
+  </si>
+  <si>
+    <t>18UE715</t>
+  </si>
+  <si>
+    <t>VIVERO MORALES MILTON CICERON</t>
+  </si>
+  <si>
+    <t>IAA2641</t>
+  </si>
+  <si>
+    <t>18UE509</t>
+  </si>
+  <si>
+    <t>IAA2628</t>
+  </si>
+  <si>
+    <t>18UE679</t>
+  </si>
+  <si>
+    <t>TAPIA MEJIA GEOVANNY FRANCISCO</t>
+  </si>
+  <si>
+    <t>TAA3550</t>
+  </si>
+  <si>
+    <t>18UE689</t>
+  </si>
+  <si>
+    <t>RAMIREZ BAEZ FIDEL RAMIRO</t>
+  </si>
+  <si>
+    <t>IAA1139</t>
+  </si>
+  <si>
+    <t>18UE683</t>
+  </si>
+  <si>
+    <t>UAA1247</t>
+  </si>
+  <si>
+    <t>18UE550</t>
+  </si>
+  <si>
+    <t>IAA1670</t>
+  </si>
+  <si>
+    <t>18UE728</t>
+  </si>
+  <si>
+    <t>PUPIALES URRESTA GUSTAVO</t>
+  </si>
+  <si>
+    <t>IAA1686</t>
+  </si>
+  <si>
+    <t>18UE471</t>
+  </si>
+  <si>
+    <t>MORALES GORDILLO VICENTE PATRICIO</t>
+  </si>
+  <si>
+    <t>CAH0266</t>
+  </si>
+  <si>
+    <t>18UE678</t>
+  </si>
+  <si>
+    <t>IAI3225</t>
+  </si>
+  <si>
+    <t>18UE792</t>
+  </si>
+  <si>
+    <t>MORALES GARZON CHRISTIAN SANTIAGO</t>
+  </si>
+  <si>
+    <t>MAA6909</t>
+  </si>
+  <si>
+    <t>18UE668</t>
+  </si>
+  <si>
+    <t>IAA1690</t>
+  </si>
+  <si>
+    <t>18UE001</t>
+  </si>
+  <si>
+    <t>IAA1469</t>
+  </si>
+  <si>
+    <t>18UE630</t>
+  </si>
+  <si>
+    <t>FUERTES RUEDA HUGO BALDOMERO</t>
+  </si>
+  <si>
+    <t>JBB0334</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>No Documento</t>
+  </si>
+  <si>
+    <t>Comentario ZFI082</t>
+  </si>
+  <si>
+    <t>Revisar manualmente</t>
   </si>
 </sst>
 </file>
@@ -409,49 +1141,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I5"/>
+  <sheetPr codeName="Hoja1" filterMode="1"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="24.7109375" style="2" customWidth="1"/>
+    <col min="1" max="2" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -470,10 +1210,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -481,10 +1224,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="I4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -492,10 +1238,1425 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14">
+        <v>1013564</v>
+      </c>
+      <c r="E14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14">
+        <v>4700006166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14">
+        <v>0.01</v>
+      </c>
+      <c r="K14">
+        <v>0.01</v>
+      </c>
+      <c r="L14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>223</v>
+      </c>
+      <c r="I16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17">
+        <v>1013564</v>
+      </c>
+      <c r="E17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F17">
+        <v>4700006166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>228</v>
+      </c>
+      <c r="H17" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17">
+        <v>0.01</v>
+      </c>
+      <c r="K17">
+        <v>0.01</v>
+      </c>
+      <c r="L17" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27">
+        <v>1021912</v>
+      </c>
+      <c r="E27" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27">
+        <v>4700006216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27">
+        <v>0.01</v>
+      </c>
+      <c r="K27">
+        <v>0.01</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>223</v>
+      </c>
+      <c r="I28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" t="s">
+        <v>224</v>
+      </c>
+      <c r="D29">
+        <v>1013556</v>
+      </c>
+      <c r="E29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29">
+        <v>4700006304</v>
+      </c>
+      <c r="G29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29">
+        <v>0.01</v>
+      </c>
+      <c r="K29">
+        <v>0.01</v>
+      </c>
+      <c r="L29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>223</v>
+      </c>
+      <c r="I30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31">
+        <v>1013556</v>
+      </c>
+      <c r="E31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31">
+        <v>4700006304</v>
+      </c>
+      <c r="G31" t="s">
+        <v>236</v>
+      </c>
+      <c r="H31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" t="s">
+        <v>223</v>
+      </c>
+      <c r="I32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33">
+        <v>1013556</v>
+      </c>
+      <c r="E33" t="s">
+        <v>234</v>
+      </c>
+      <c r="F33">
+        <v>4700006304</v>
+      </c>
+      <c r="G33" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35">
+        <v>10005628</v>
+      </c>
+      <c r="E35" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35">
+        <v>4700006305</v>
+      </c>
+      <c r="G35" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>223</v>
+      </c>
+      <c r="I36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39">
+        <v>1021911</v>
+      </c>
+      <c r="E39" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39">
+        <v>4700006278</v>
+      </c>
+      <c r="G39" t="s">
+        <v>243</v>
+      </c>
+      <c r="H39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>223</v>
+      </c>
+      <c r="I40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41">
+        <v>1021911</v>
+      </c>
+      <c r="E41" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41">
+        <v>4700006278</v>
+      </c>
+      <c r="G41" t="s">
+        <v>246</v>
+      </c>
+      <c r="H41" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>223</v>
+      </c>
+      <c r="I42" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43">
+        <v>1021830</v>
+      </c>
+      <c r="E43" t="s">
+        <v>249</v>
+      </c>
+      <c r="F43">
+        <v>4700006276</v>
+      </c>
+      <c r="G43" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" t="s">
+        <v>223</v>
+      </c>
+      <c r="I44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45">
+        <v>1021830</v>
+      </c>
+      <c r="E45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45">
+        <v>4700006276</v>
+      </c>
+      <c r="G45" t="s">
+        <v>251</v>
+      </c>
+      <c r="H45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
+        <v>224</v>
+      </c>
+      <c r="D46">
+        <v>1021830</v>
+      </c>
+      <c r="E46" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46">
+        <v>4700006276</v>
+      </c>
+      <c r="G46" t="s">
+        <v>253</v>
+      </c>
+      <c r="H46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50">
+        <v>1020060</v>
+      </c>
+      <c r="E50" t="s">
+        <v>256</v>
+      </c>
+      <c r="F50">
+        <v>4700006142</v>
+      </c>
+      <c r="G50" t="s">
+        <v>255</v>
+      </c>
+      <c r="H50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>223</v>
+      </c>
+      <c r="I52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C77" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C83" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C85" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C86" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>222</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L106">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Punto Emisión Cemento"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
